--- a/Code/Results/Cases/Case_3_123/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_123/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7942111006728965</v>
+        <v>0.3021441429092135</v>
       </c>
       <c r="C2">
-        <v>0.1258997056193607</v>
+        <v>0.04032442125382829</v>
       </c>
       <c r="D2">
-        <v>0.2237290494469732</v>
+        <v>0.2619894535071836</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7560554677235345</v>
+        <v>1.461030158445865</v>
       </c>
       <c r="G2">
-        <v>0.0008118350150093446</v>
+        <v>0.002461779634844103</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3080752251353971</v>
+        <v>0.6957237433609365</v>
       </c>
       <c r="J2">
-        <v>0.1944272686625297</v>
+        <v>0.2981952928391962</v>
       </c>
       <c r="K2">
-        <v>0.867490692182372</v>
+        <v>0.3164671445548777</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4074444803296728</v>
+        <v>0.2868413457126735</v>
       </c>
       <c r="N2">
-        <v>0.8295351246373448</v>
+        <v>1.739539872600418</v>
       </c>
       <c r="O2">
-        <v>1.606686348636629</v>
+        <v>3.33953822088418</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6904283544789394</v>
+        <v>0.2715625377628612</v>
       </c>
       <c r="C3">
-        <v>0.1097065282403236</v>
+        <v>0.03551205972293303</v>
       </c>
       <c r="D3">
-        <v>0.2003528711498035</v>
+        <v>0.2569519675557501</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7295329922016265</v>
+        <v>1.463775374681902</v>
       </c>
       <c r="G3">
-        <v>0.0008151762017148467</v>
+        <v>0.002464017470458139</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3107198564068234</v>
+        <v>0.7009732478823452</v>
       </c>
       <c r="J3">
-        <v>0.1803254894877284</v>
+        <v>0.2964387989239086</v>
       </c>
       <c r="K3">
-        <v>0.7543302710234627</v>
+        <v>0.2830370935275255</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3567883924611479</v>
+        <v>0.2738324866643538</v>
       </c>
       <c r="N3">
-        <v>0.8685574274921084</v>
+        <v>1.756508387189941</v>
       </c>
       <c r="O3">
-        <v>1.581705914354757</v>
+        <v>3.355606042519867</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6267832358317094</v>
+        <v>0.2528213793436009</v>
       </c>
       <c r="C4">
-        <v>0.09977671415526856</v>
+        <v>0.03255446131515782</v>
       </c>
       <c r="D4">
-        <v>0.1861657702982029</v>
+        <v>0.2539700804974814</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7144721191497752</v>
+        <v>1.466158955167352</v>
       </c>
       <c r="G4">
-        <v>0.0008172985595492392</v>
+        <v>0.002465465875382556</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3129104043402329</v>
+        <v>0.7045127818257839</v>
       </c>
       <c r="J4">
-        <v>0.1719334976511675</v>
+        <v>0.2955083224214832</v>
       </c>
       <c r="K4">
-        <v>0.6849326294669424</v>
+        <v>0.2625365920782201</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3258985758871802</v>
+        <v>0.2659646019404605</v>
       </c>
       <c r="N4">
-        <v>0.8935308627816299</v>
+        <v>1.767460534423432</v>
       </c>
       <c r="O4">
-        <v>1.569262702888892</v>
+        <v>3.367074478666083</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6008592621623734</v>
+        <v>0.2451937588481883</v>
       </c>
       <c r="C5">
-        <v>0.09573192817833842</v>
+        <v>0.03134856782351392</v>
       </c>
       <c r="D5">
-        <v>0.180423273457663</v>
+        <v>0.2527830071448562</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7086292774292104</v>
+        <v>1.467305972221922</v>
       </c>
       <c r="G5">
-        <v>0.0008181815202915663</v>
+        <v>0.002466074866024737</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3139406717857796</v>
+        <v>0.7060347426437446</v>
       </c>
       <c r="J5">
-        <v>0.1685769581187699</v>
+        <v>0.2951664053675955</v>
       </c>
       <c r="K5">
-        <v>0.6566646587171192</v>
+        <v>0.2541894231163155</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3133586378616826</v>
+        <v>0.2627886552157079</v>
       </c>
       <c r="N5">
-        <v>0.9039571829008479</v>
+        <v>1.772057781195759</v>
       </c>
       <c r="O5">
-        <v>1.564890663235232</v>
+        <v>3.37215119906115</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5965551104184783</v>
+        <v>0.2439277895241503</v>
       </c>
       <c r="C6">
-        <v>0.09506035347666852</v>
+        <v>0.03114829255022755</v>
       </c>
       <c r="D6">
-        <v>0.1794720019774019</v>
+        <v>0.2525875934061048</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7076764954009818</v>
+        <v>1.467507049676499</v>
       </c>
       <c r="G6">
-        <v>0.0008183292348943913</v>
+        <v>0.002466177122950834</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.314119918205936</v>
+        <v>0.7062922699632566</v>
       </c>
       <c r="J6">
-        <v>0.1680233216407601</v>
+        <v>0.2951118818543321</v>
       </c>
       <c r="K6">
-        <v>0.6519712677148419</v>
+        <v>0.2528038164563213</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3112791231133727</v>
+        <v>0.2622631265294615</v>
       </c>
       <c r="N6">
-        <v>0.9057033769462319</v>
+        <v>1.772829254166869</v>
       </c>
       <c r="O6">
-        <v>1.564206056430649</v>
+        <v>3.37301854580096</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6264335775899781</v>
+        <v>0.2527184712628525</v>
       </c>
       <c r="C7">
-        <v>0.09972215987228594</v>
+        <v>0.03253820076760405</v>
       </c>
       <c r="D7">
-        <v>0.1860881713260483</v>
+        <v>0.2539539573971865</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7143921447935568</v>
+        <v>1.466173712659696</v>
       </c>
       <c r="G7">
-        <v>0.0008173103938764555</v>
+        <v>0.00246547401243886</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3129237480741374</v>
+        <v>0.7045329852960052</v>
       </c>
       <c r="J7">
-        <v>0.1718879788727179</v>
+        <v>0.2955035602929783</v>
       </c>
       <c r="K7">
-        <v>0.6845513599221249</v>
+        <v>0.262423990437668</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3257292712363551</v>
+        <v>0.2659216471385051</v>
       </c>
       <c r="N7">
-        <v>0.8936704727901468</v>
+        <v>1.767521991264334</v>
       </c>
       <c r="O7">
-        <v>1.569200948861393</v>
+        <v>3.367141312100358</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7584058728243122</v>
+        <v>0.2915923995091703</v>
       </c>
       <c r="C8">
-        <v>0.1203126697441803</v>
+        <v>0.03866572831489634</v>
       </c>
       <c r="D8">
-        <v>0.215632719986786</v>
+        <v>0.2602295293802683</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7466483266355084</v>
+        <v>1.461831936425469</v>
       </c>
       <c r="G8">
-        <v>0.0008129725134496946</v>
+        <v>0.002462535839075505</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3088664475527985</v>
+        <v>0.6974681397188505</v>
       </c>
       <c r="J8">
-        <v>0.1895073279493076</v>
+        <v>0.2975589550049378</v>
       </c>
       <c r="K8">
-        <v>0.8284502001254452</v>
+        <v>0.3049354176059182</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3899304711319544</v>
+        <v>0.2823311845116692</v>
       </c>
       <c r="N8">
-        <v>0.8427763082156896</v>
+        <v>1.745279925052262</v>
       </c>
       <c r="O8">
-        <v>1.597454224567343</v>
+        <v>3.344745887940519</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.018199337481633</v>
+        <v>0.3680927696585456</v>
       </c>
       <c r="C9">
-        <v>0.1608684045673812</v>
+        <v>0.05065790139028081</v>
       </c>
       <c r="D9">
-        <v>0.2750253323923459</v>
+        <v>0.2734133953940869</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8202439935300845</v>
+        <v>1.458849985112202</v>
       </c>
       <c r="G9">
-        <v>0.0008050155326267226</v>
+        <v>0.002457361654686311</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3056390003684157</v>
+        <v>0.6861225734236456</v>
       </c>
       <c r="J9">
-        <v>0.2263540214218551</v>
+        <v>0.3027628655665566</v>
       </c>
       <c r="K9">
-        <v>1.111731103609173</v>
+        <v>0.3884864029271284</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5177979325902839</v>
+        <v>0.3154521397116383</v>
       </c>
       <c r="N9">
-        <v>0.7512691775869382</v>
+        <v>1.7058937926708</v>
       </c>
       <c r="O9">
-        <v>1.677219251158874</v>
+        <v>3.313537691284637</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.210251223016257</v>
+        <v>0.4244434241421686</v>
       </c>
       <c r="C10">
-        <v>0.1908880352769131</v>
+        <v>0.05945247075663929</v>
       </c>
       <c r="D10">
-        <v>0.3197560380691584</v>
+        <v>0.2836298196812095</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8815455707301822</v>
+        <v>1.460025502831655</v>
       </c>
       <c r="G10">
-        <v>0.0007994860758720468</v>
+        <v>0.002453914892542022</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3064900227596219</v>
+        <v>0.6793147768725376</v>
       </c>
       <c r="J10">
-        <v>0.2550911244470058</v>
+        <v>0.307300709485574</v>
       </c>
       <c r="K10">
-        <v>1.321185500059812</v>
+        <v>0.4499671831358683</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6133582858947904</v>
+        <v>0.3403534367121281</v>
       </c>
       <c r="N10">
-        <v>0.6894632890718499</v>
+        <v>1.679532289177632</v>
       </c>
       <c r="O10">
-        <v>1.752716545961817</v>
+        <v>3.298349262154233</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.29801419671486</v>
+        <v>0.4501069686698997</v>
       </c>
       <c r="C11">
-        <v>0.2046208740827069</v>
+        <v>0.06344958453964011</v>
       </c>
       <c r="D11">
-        <v>0.3403919601619521</v>
+        <v>0.2883917471436206</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9112219382106446</v>
+        <v>1.461290059415603</v>
       </c>
       <c r="G11">
-        <v>0.0007970350170709651</v>
+        <v>0.002452423152650506</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.307656688236527</v>
+        <v>0.6765491855641628</v>
       </c>
       <c r="J11">
-        <v>0.2685891669275975</v>
+        <v>0.3095201411469048</v>
       </c>
       <c r="K11">
-        <v>1.416917751632297</v>
+        <v>0.4779538049298537</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6572807977066688</v>
+        <v>0.3518035684714249</v>
       </c>
       <c r="N11">
-        <v>0.6626103730271082</v>
+        <v>1.668098251177348</v>
       </c>
       <c r="O11">
-        <v>1.791212706893504</v>
+        <v>3.293118987511235</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.331316760443059</v>
+        <v>0.4598288836229187</v>
       </c>
       <c r="C12">
-        <v>0.209834609793063</v>
+        <v>0.06496262978822642</v>
       </c>
       <c r="D12">
-        <v>0.3482518780606085</v>
+        <v>0.2902113136351403</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.922736353151592</v>
+        <v>1.461873726047912</v>
       </c>
       <c r="G12">
-        <v>0.0007961157441288003</v>
+        <v>0.002451869172853973</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3082176746684766</v>
+        <v>0.6755495472749118</v>
       </c>
       <c r="J12">
-        <v>0.2737672645650946</v>
+        <v>0.3103828651845504</v>
       </c>
       <c r="K12">
-        <v>1.453247501324398</v>
+        <v>0.4885538748607132</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.673986662041969</v>
+        <v>0.3561568653158886</v>
       </c>
       <c r="N12">
-        <v>0.6526313041010745</v>
+        <v>1.663848688539018</v>
       </c>
       <c r="O12">
-        <v>1.80643010953213</v>
+        <v>3.291379706822141</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.324141214161529</v>
+        <v>0.4577349397699493</v>
       </c>
       <c r="C13">
-        <v>0.2087111025326465</v>
+        <v>0.06463679495355734</v>
       </c>
       <c r="D13">
-        <v>0.3465570093102315</v>
+        <v>0.2898187132603454</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9202438957358368</v>
+        <v>1.461743363915588</v>
       </c>
       <c r="G13">
-        <v>0.0007963133365333669</v>
+        <v>0.002451987997890592</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3080914370843715</v>
+        <v>0.6757627190302955</v>
       </c>
       <c r="J13">
-        <v>0.2726490112087276</v>
+        <v>0.310196072087038</v>
       </c>
       <c r="K13">
-        <v>1.445419548366033</v>
+        <v>0.4862708735067542</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6703853522542502</v>
+        <v>0.3552185354838855</v>
       </c>
       <c r="N13">
-        <v>0.6547719131207002</v>
+        <v>1.664760337856888</v>
       </c>
       <c r="O13">
-        <v>1.803123607497582</v>
+        <v>3.291743561746671</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.300752574759684</v>
+        <v>0.4509067256126684</v>
       </c>
       <c r="C14">
-        <v>0.2050495283268532</v>
+        <v>0.0635740755528218</v>
       </c>
       <c r="D14">
-        <v>0.3410376627558662</v>
+        <v>0.2885411174627421</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9121635776580916</v>
+        <v>1.461335978339747</v>
       </c>
       <c r="G14">
-        <v>0.0007969592119088965</v>
+        <v>0.00245237735816558</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3077004098036404</v>
+        <v>0.6764659901833632</v>
       </c>
       <c r="J14">
-        <v>0.2690138028573301</v>
+        <v>0.3095906717873618</v>
       </c>
       <c r="K14">
-        <v>1.419904978994055</v>
+        <v>0.4788258392320017</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6586536786683013</v>
+        <v>0.3521613697638699</v>
       </c>
       <c r="N14">
-        <v>0.6617855429212267</v>
+        <v>1.667747028414336</v>
       </c>
       <c r="O14">
-        <v>1.792451576005931</v>
+        <v>3.292971060359008</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.286435649065425</v>
+        <v>0.4467247116965893</v>
       </c>
       <c r="C15">
-        <v>0.2028085278966358</v>
+        <v>0.06292305256332043</v>
       </c>
       <c r="D15">
-        <v>0.3376629629210584</v>
+        <v>0.2877606757707554</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.907250765173643</v>
+        <v>1.461100087680222</v>
       </c>
       <c r="G15">
-        <v>0.0007973559759501281</v>
+        <v>0.002452617271847562</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3074766354465339</v>
+        <v>0.676902966730335</v>
       </c>
       <c r="J15">
-        <v>0.2667959865370761</v>
+        <v>0.3092227462074248</v>
       </c>
       <c r="K15">
-        <v>1.40428713904447</v>
+        <v>0.4742658037104945</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6514775033916251</v>
+        <v>0.3502910243486212</v>
       </c>
       <c r="N15">
-        <v>0.6661065226700655</v>
+        <v>1.669586915636115</v>
       </c>
       <c r="O15">
-        <v>1.785999275910939</v>
+        <v>3.293754360633471</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.204524668381737</v>
+        <v>0.4227667962003636</v>
       </c>
       <c r="C16">
-        <v>0.1899923050646777</v>
+        <v>0.05919117278767771</v>
       </c>
       <c r="D16">
-        <v>0.3184135718038021</v>
+        <v>0.2833209082581618</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8796437843879801</v>
+        <v>1.459957534812048</v>
       </c>
       <c r="G16">
-        <v>0.0007996475223395749</v>
+        <v>0.002454013910607171</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3064300614312039</v>
+        <v>0.6795021806384653</v>
       </c>
       <c r="J16">
-        <v>0.2542180184624954</v>
+        <v>0.3071587832210554</v>
       </c>
       <c r="K16">
-        <v>1.314939347473342</v>
+        <v>0.4481385213165368</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6104976411819507</v>
+        <v>0.3396075878918055</v>
       </c>
       <c r="N16">
-        <v>0.691244270915083</v>
+        <v>1.680290760010564</v>
       </c>
       <c r="O16">
-        <v>1.75028786749678</v>
+        <v>3.298724847933272</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.154384675002717</v>
+        <v>0.4080765291227237</v>
       </c>
       <c r="C17">
-        <v>0.1821512576237438</v>
+        <v>0.05690082570265531</v>
       </c>
       <c r="D17">
-        <v>0.3066812654823252</v>
+        <v>0.2806264719133083</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8631795440377914</v>
+        <v>1.459443438148057</v>
       </c>
       <c r="G17">
-        <v>0.0008010695362135801</v>
+        <v>0.002454890186986881</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3059925921754214</v>
+        <v>0.6811815627873976</v>
       </c>
       <c r="J17">
-        <v>0.2466146035735761</v>
+        <v>0.3059323192567973</v>
       </c>
       <c r="K17">
-        <v>1.260251870207128</v>
+        <v>0.4321146824633217</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5854793095665372</v>
+        <v>0.3330848395902066</v>
       </c>
       <c r="N17">
-        <v>0.7069944219224897</v>
+        <v>1.687000143340157</v>
       </c>
       <c r="O17">
-        <v>1.729473029627769</v>
+        <v>3.302204025283771</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.125582169945545</v>
+        <v>0.3996298703961543</v>
       </c>
       <c r="C18">
-        <v>0.1776483671536937</v>
+        <v>0.0555831452798401</v>
       </c>
       <c r="D18">
-        <v>0.2999599677335993</v>
+        <v>0.2790874811662007</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8538770073026285</v>
+        <v>1.459216444626676</v>
       </c>
       <c r="G18">
-        <v>0.0008018935175310829</v>
+        <v>0.002455401374162481</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3058138939764099</v>
+        <v>0.6821786840349873</v>
       </c>
       <c r="J18">
-        <v>0.2422810093388392</v>
+        <v>0.3052414946574658</v>
       </c>
       <c r="K18">
-        <v>1.228838625311369</v>
+        <v>0.4228999876044384</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.571131399555064</v>
+        <v>0.3293446620830025</v>
       </c>
       <c r="N18">
-        <v>0.716171857539039</v>
+        <v>1.690911717493687</v>
       </c>
       <c r="O18">
-        <v>1.717888983799611</v>
+        <v>3.30436320095788</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.115836102455546</v>
+        <v>0.3967704730445405</v>
       </c>
       <c r="C19">
-        <v>0.1761249112187926</v>
+        <v>0.05513694590935359</v>
       </c>
       <c r="D19">
-        <v>0.297688734432711</v>
+        <v>0.2785682602755628</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.850755489258006</v>
+        <v>1.45915139226129</v>
       </c>
       <c r="G19">
-        <v>0.0008021735577912747</v>
+        <v>0.002455575687170872</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3057657051876141</v>
+        <v>0.6825216485507397</v>
       </c>
       <c r="J19">
-        <v>0.2408203833214202</v>
+        <v>0.3050101028399581</v>
       </c>
       <c r="K19">
-        <v>1.218209386980391</v>
+        <v>0.419780374918048</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5662804052122326</v>
+        <v>0.3280802900952722</v>
       </c>
       <c r="N19">
-        <v>0.7192992747722649</v>
+        <v>1.692245127867074</v>
       </c>
       <c r="O19">
-        <v>1.714032225095934</v>
+        <v>3.305121409064157</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.159718284844246</v>
+        <v>0.4096400477840518</v>
       </c>
       <c r="C20">
-        <v>0.1829852019192231</v>
+        <v>0.05714467199703677</v>
       </c>
       <c r="D20">
-        <v>0.3079273849457422</v>
+        <v>0.2809121847169536</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8649147445421335</v>
+        <v>1.459491055295288</v>
       </c>
       <c r="G20">
-        <v>0.0008009175340161563</v>
+        <v>0.002454796163262891</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3060315642978146</v>
+        <v>0.680999562232639</v>
       </c>
       <c r="J20">
-        <v>0.2474198536449137</v>
+        <v>0.3060613671334522</v>
       </c>
       <c r="K20">
-        <v>1.266069052637533</v>
+        <v>0.4338202658059913</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5881381504801837</v>
+        <v>0.3337780050769794</v>
       </c>
       <c r="N20">
-        <v>0.705305485109962</v>
+        <v>1.686280482799535</v>
       </c>
       <c r="O20">
-        <v>1.731648337503941</v>
+        <v>3.301817304800977</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.307620427229125</v>
+        <v>0.4529122417959854</v>
       </c>
       <c r="C21">
-        <v>0.2061246377606096</v>
+        <v>0.06388623808652483</v>
       </c>
       <c r="D21">
-        <v>0.3426575580511866</v>
+        <v>0.2889159361910458</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9145292962041225</v>
+        <v>1.461452794049919</v>
       </c>
       <c r="G21">
-        <v>0.0007967692643691681</v>
+        <v>0.002452262698046258</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3078119702475206</v>
+        <v>0.6762581297888559</v>
       </c>
       <c r="J21">
-        <v>0.2700796961971008</v>
+        <v>0.3097678883246147</v>
       </c>
       <c r="K21">
-        <v>1.427396998615791</v>
+        <v>0.4810125724475824</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6620974946102578</v>
+        <v>0.3530588635108955</v>
       </c>
       <c r="N21">
-        <v>0.6597202597764467</v>
+        <v>1.66686758654696</v>
       </c>
       <c r="O21">
-        <v>1.795568493975367</v>
+        <v>3.292603966192331</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.404688957191041</v>
+        <v>0.4812143687522621</v>
       </c>
       <c r="C22">
-        <v>0.2213269795620363</v>
+        <v>0.06828886174844229</v>
       </c>
       <c r="D22">
-        <v>0.3656233202463142</v>
+        <v>0.2942419631940822</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9485774523549679</v>
+        <v>1.463345731428959</v>
       </c>
       <c r="G22">
-        <v>0.0007941097653108067</v>
+        <v>0.002450670497645357</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3096739548116751</v>
+        <v>0.6734369552631172</v>
       </c>
       <c r="J22">
-        <v>0.2852807123760215</v>
+        <v>0.3123201238779103</v>
       </c>
       <c r="K22">
-        <v>1.533295761193074</v>
+        <v>0.511867713824671</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7108661386698643</v>
+        <v>0.3657612223804918</v>
       </c>
       <c r="N22">
-        <v>0.6310365590428044</v>
+        <v>1.654647964581859</v>
       </c>
       <c r="O22">
-        <v>1.841094759650389</v>
+        <v>3.287989000419088</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.352840517232352</v>
+        <v>0.4661072230150864</v>
       </c>
       <c r="C23">
-        <v>0.2132051091154636</v>
+        <v>0.06593942777712414</v>
       </c>
       <c r="D23">
-        <v>0.353340127261518</v>
+        <v>0.2913907013195995</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9302502000078903</v>
+        <v>1.462279590370841</v>
       </c>
       <c r="G23">
-        <v>0.0007955245894509333</v>
+        <v>0.002451514484732279</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.308613811555837</v>
+        <v>0.6749172699737187</v>
       </c>
       <c r="J23">
-        <v>0.2771299037984818</v>
+        <v>0.3109460821205943</v>
       </c>
       <c r="K23">
-        <v>1.476728730272242</v>
+        <v>0.4953988047887208</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6847949403531217</v>
+        <v>0.3589725476414714</v>
       </c>
       <c r="N23">
-        <v>0.6462413707696912</v>
+        <v>1.661126990617786</v>
       </c>
       <c r="O23">
-        <v>1.816438503563688</v>
+        <v>3.290323444146139</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.157306887042267</v>
+        <v>0.4089331841610431</v>
       </c>
       <c r="C24">
-        <v>0.1826081602063852</v>
+        <v>0.05703443197752733</v>
       </c>
       <c r="D24">
-        <v>0.3073639406368898</v>
+        <v>0.2807829825615187</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8641297542044413</v>
+        <v>1.459469313989544</v>
       </c>
       <c r="G24">
-        <v>0.0008009862341147582</v>
+        <v>0.002454838648437199</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3060137187501226</v>
+        <v>0.6810817461815866</v>
       </c>
       <c r="J24">
-        <v>0.2470556830410544</v>
+        <v>0.3060029800873849</v>
       </c>
       <c r="K24">
-        <v>1.263439020373738</v>
+        <v>0.4330491789378357</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5869359786763297</v>
+        <v>0.3334645943019865</v>
       </c>
       <c r="N24">
-        <v>0.7060686725901415</v>
+        <v>1.6866056723127</v>
       </c>
       <c r="O24">
-        <v>1.730663692040082</v>
+        <v>3.301991646000005</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9477545424177549</v>
+        <v>0.3473704828043083</v>
       </c>
       <c r="C25">
-        <v>0.1498665764452625</v>
+        <v>0.04741641493393445</v>
       </c>
       <c r="D25">
-        <v>0.2587815025219982</v>
+        <v>0.2697533542298487</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7991349237547141</v>
+        <v>1.45906506174709</v>
       </c>
       <c r="G25">
-        <v>0.0008071111272656283</v>
+        <v>0.002458698867501426</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3059719908552978</v>
+        <v>0.6889234457483298</v>
       </c>
       <c r="J25">
-        <v>0.216113731544155</v>
+        <v>0.3012295366269839</v>
       </c>
       <c r="K25">
-        <v>1.034913208935023</v>
+        <v>0.3658655355862663</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4829541909397577</v>
+        <v>0.306391915543081</v>
       </c>
       <c r="N25">
-        <v>0.7750995815732362</v>
+        <v>1.716096257110493</v>
       </c>
       <c r="O25">
-        <v>1.652829088423971</v>
+        <v>3.320620520761622</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_123/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_123/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3021441429092135</v>
+        <v>0.794211100672868</v>
       </c>
       <c r="C2">
-        <v>0.04032442125382829</v>
+        <v>0.125899705619446</v>
       </c>
       <c r="D2">
-        <v>0.2619894535071836</v>
+        <v>0.2237290494468454</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.461030158445865</v>
+        <v>0.7560554677235487</v>
       </c>
       <c r="G2">
-        <v>0.002461779634844103</v>
+        <v>0.0008118350150482239</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6957237433609365</v>
+        <v>0.3080752251353935</v>
       </c>
       <c r="J2">
-        <v>0.2981952928391962</v>
+        <v>0.1944272686626007</v>
       </c>
       <c r="K2">
-        <v>0.3164671445548777</v>
+        <v>0.8674906921822867</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2868413457126735</v>
+        <v>0.4074444803296871</v>
       </c>
       <c r="N2">
-        <v>1.739539872600418</v>
+        <v>0.8295351246372826</v>
       </c>
       <c r="O2">
-        <v>3.33953822088418</v>
+        <v>1.606686348636572</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2715625377628612</v>
+        <v>0.6904283544789109</v>
       </c>
       <c r="C3">
-        <v>0.03551205972293303</v>
+        <v>0.1097065282400962</v>
       </c>
       <c r="D3">
-        <v>0.2569519675557501</v>
+        <v>0.2003528711498035</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.463775374681902</v>
+        <v>0.7295329922016407</v>
       </c>
       <c r="G3">
-        <v>0.002464017470458139</v>
+        <v>0.000815176201754122</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7009732478823452</v>
+        <v>0.3107198564068234</v>
       </c>
       <c r="J3">
-        <v>0.2964387989239086</v>
+        <v>0.1803254894877284</v>
       </c>
       <c r="K3">
-        <v>0.2830370935275255</v>
+        <v>0.7543302710235764</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2738324866643538</v>
+        <v>0.3567883924611408</v>
       </c>
       <c r="N3">
-        <v>1.756508387189941</v>
+        <v>0.8685574274921022</v>
       </c>
       <c r="O3">
-        <v>3.355606042519867</v>
+        <v>1.581705914354757</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2528213793436009</v>
+        <v>0.6267832358317378</v>
       </c>
       <c r="C4">
-        <v>0.03255446131515782</v>
+        <v>0.09977671415542488</v>
       </c>
       <c r="D4">
-        <v>0.2539700804974814</v>
+        <v>0.1861657702983166</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.466158955167352</v>
+        <v>0.7144721191497396</v>
       </c>
       <c r="G4">
-        <v>0.002465465875382556</v>
+        <v>0.00081729855955034</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7045127818257839</v>
+        <v>0.3129104043402435</v>
       </c>
       <c r="J4">
-        <v>0.2955083224214832</v>
+        <v>0.1719334976511675</v>
       </c>
       <c r="K4">
-        <v>0.2625365920782201</v>
+        <v>0.6849326294670277</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2659646019404605</v>
+        <v>0.3258985758871731</v>
       </c>
       <c r="N4">
-        <v>1.767460534423432</v>
+        <v>0.8935308627816849</v>
       </c>
       <c r="O4">
-        <v>3.367074478666083</v>
+        <v>1.569262702888935</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2451937588481883</v>
+        <v>0.6008592621623734</v>
       </c>
       <c r="C5">
-        <v>0.03134856782351392</v>
+        <v>0.09573192817832421</v>
       </c>
       <c r="D5">
-        <v>0.2527830071448562</v>
+        <v>0.1804232734576061</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.467305972221922</v>
+        <v>0.7086292774292104</v>
       </c>
       <c r="G5">
-        <v>0.002466074866024737</v>
+        <v>0.0008181815202504827</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7060347426437446</v>
+        <v>0.3139406717857725</v>
       </c>
       <c r="J5">
-        <v>0.2951664053675955</v>
+        <v>0.1685769581186705</v>
       </c>
       <c r="K5">
-        <v>0.2541894231163155</v>
+        <v>0.6566646587171334</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2627886552157079</v>
+        <v>0.3133586378616968</v>
       </c>
       <c r="N5">
-        <v>1.772057781195759</v>
+        <v>0.9039571829008421</v>
       </c>
       <c r="O5">
-        <v>3.37215119906115</v>
+        <v>1.564890663235204</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2439277895241503</v>
+        <v>0.5965551104183362</v>
       </c>
       <c r="C6">
-        <v>0.03114829255022755</v>
+        <v>0.09506035347619957</v>
       </c>
       <c r="D6">
-        <v>0.2525875934061048</v>
+        <v>0.1794720019772313</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.467507049676499</v>
+        <v>0.7076764954009604</v>
       </c>
       <c r="G6">
-        <v>0.002466177122950834</v>
+        <v>0.0008183292349313879</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7062922699632566</v>
+        <v>0.3141199182059466</v>
       </c>
       <c r="J6">
-        <v>0.2951118818543321</v>
+        <v>0.1680233216407672</v>
       </c>
       <c r="K6">
-        <v>0.2528038164563213</v>
+        <v>0.6519712677147993</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2622631265294615</v>
+        <v>0.3112791231133656</v>
       </c>
       <c r="N6">
-        <v>1.772829254166869</v>
+        <v>0.9057033769461591</v>
       </c>
       <c r="O6">
-        <v>3.37301854580096</v>
+        <v>1.564206056430663</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2527184712628525</v>
+        <v>0.6264335775899781</v>
       </c>
       <c r="C7">
-        <v>0.03253820076760405</v>
+        <v>0.09972215987252753</v>
       </c>
       <c r="D7">
-        <v>0.2539539573971865</v>
+        <v>0.1860881713260198</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.466173712659696</v>
+        <v>0.7143921447935497</v>
       </c>
       <c r="G7">
-        <v>0.00246547401243886</v>
+        <v>0.0008173103939337272</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7045329852960052</v>
+        <v>0.3129237480741445</v>
       </c>
       <c r="J7">
-        <v>0.2955035602929783</v>
+        <v>0.1718879788726539</v>
       </c>
       <c r="K7">
-        <v>0.262423990437668</v>
+        <v>0.6845513599219402</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2659216471385051</v>
+        <v>0.325729271236348</v>
       </c>
       <c r="N7">
-        <v>1.767521991264334</v>
+        <v>0.8936704727901419</v>
       </c>
       <c r="O7">
-        <v>3.367141312100358</v>
+        <v>1.569200948861351</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2915923995091703</v>
+        <v>0.7584058728243406</v>
       </c>
       <c r="C8">
-        <v>0.03866572831489634</v>
+        <v>0.1203126697441945</v>
       </c>
       <c r="D8">
-        <v>0.2602295293802683</v>
+        <v>0.2156327199866439</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.461831936425469</v>
+        <v>0.7466483266355155</v>
       </c>
       <c r="G8">
-        <v>0.002462535839075505</v>
+        <v>0.0008129725134301124</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6974681397188505</v>
+        <v>0.3088664475527985</v>
       </c>
       <c r="J8">
-        <v>0.2975589550049378</v>
+        <v>0.1895073279493147</v>
       </c>
       <c r="K8">
-        <v>0.3049354176059182</v>
+        <v>0.8284502001252179</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2823311845116692</v>
+        <v>0.3899304711319687</v>
       </c>
       <c r="N8">
-        <v>1.745279925052262</v>
+        <v>0.8427763082156878</v>
       </c>
       <c r="O8">
-        <v>3.344745887940519</v>
+        <v>1.597454224567215</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3680927696585456</v>
+        <v>1.018199337481661</v>
       </c>
       <c r="C9">
-        <v>0.05065790139028081</v>
+        <v>0.1608684045676085</v>
       </c>
       <c r="D9">
-        <v>0.2734133953940869</v>
+        <v>0.2750253323922323</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.458849985112202</v>
+        <v>0.8202439935300703</v>
       </c>
       <c r="G9">
-        <v>0.002457361654686311</v>
+        <v>0.000805015532626001</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6861225734236456</v>
+        <v>0.3056390003684193</v>
       </c>
       <c r="J9">
-        <v>0.3027628655665566</v>
+        <v>0.2263540214218267</v>
       </c>
       <c r="K9">
-        <v>0.3884864029271284</v>
+        <v>1.111731103609259</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3154521397116383</v>
+        <v>0.5177979325902839</v>
       </c>
       <c r="N9">
-        <v>1.7058937926708</v>
+        <v>0.7512691775869911</v>
       </c>
       <c r="O9">
-        <v>3.313537691284637</v>
+        <v>1.677219251158931</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4244434241421686</v>
+        <v>1.210251223016257</v>
       </c>
       <c r="C10">
-        <v>0.05945247075663929</v>
+        <v>0.1908880352769842</v>
       </c>
       <c r="D10">
-        <v>0.2836298196812095</v>
+        <v>0.3197560380692721</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.460025502831655</v>
+        <v>0.8815455707301822</v>
       </c>
       <c r="G10">
-        <v>0.002453914892542022</v>
+        <v>0.0007994860758770847</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6793147768725376</v>
+        <v>0.3064900227596219</v>
       </c>
       <c r="J10">
-        <v>0.307300709485574</v>
+        <v>0.2550911244470484</v>
       </c>
       <c r="K10">
-        <v>0.4499671831358683</v>
+        <v>1.321185500059926</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3403534367121281</v>
+        <v>0.6133582858948117</v>
       </c>
       <c r="N10">
-        <v>1.679532289177632</v>
+        <v>0.6894632890717936</v>
       </c>
       <c r="O10">
-        <v>3.298349262154233</v>
+        <v>1.752716545961817</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4501069686698997</v>
+        <v>1.29801419671503</v>
       </c>
       <c r="C11">
-        <v>0.06344958453964011</v>
+        <v>0.2046208740827069</v>
       </c>
       <c r="D11">
-        <v>0.2883917471436206</v>
+        <v>0.3403919601619236</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.461290059415603</v>
+        <v>0.9112219382106161</v>
       </c>
       <c r="G11">
-        <v>0.002452423152650506</v>
+        <v>0.0007970350170952026</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6765491855641628</v>
+        <v>0.3076566882365199</v>
       </c>
       <c r="J11">
-        <v>0.3095201411469048</v>
+        <v>0.2685891669276259</v>
       </c>
       <c r="K11">
-        <v>0.4779538049298537</v>
+        <v>1.416917751632383</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3518035684714249</v>
+        <v>0.6572807977066759</v>
       </c>
       <c r="N11">
-        <v>1.668098251177348</v>
+        <v>0.6626103730270958</v>
       </c>
       <c r="O11">
-        <v>3.293118987511235</v>
+        <v>1.79121270689356</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4598288836229187</v>
+        <v>1.331316760443144</v>
       </c>
       <c r="C12">
-        <v>0.06496262978822642</v>
+        <v>0.2098346097937025</v>
       </c>
       <c r="D12">
-        <v>0.2902113136351403</v>
+        <v>0.3482518780605233</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.461873726047912</v>
+        <v>0.922736353151592</v>
       </c>
       <c r="G12">
-        <v>0.002451869172853973</v>
+        <v>0.0007961157441287757</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6755495472749118</v>
+        <v>0.3082176746684695</v>
       </c>
       <c r="J12">
-        <v>0.3103828651845504</v>
+        <v>0.2737672645650946</v>
       </c>
       <c r="K12">
-        <v>0.4885538748607132</v>
+        <v>1.453247501324313</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3561568653158886</v>
+        <v>0.6739866620419619</v>
       </c>
       <c r="N12">
-        <v>1.663848688539018</v>
+        <v>0.6526313041010692</v>
       </c>
       <c r="O12">
-        <v>3.291379706822141</v>
+        <v>1.806430109532016</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4577349397699493</v>
+        <v>1.324141214161671</v>
       </c>
       <c r="C13">
-        <v>0.06463679495355734</v>
+        <v>0.2087111025323907</v>
       </c>
       <c r="D13">
-        <v>0.2898187132603454</v>
+        <v>0.3465570093103452</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.461743363915588</v>
+        <v>0.9202438957358368</v>
       </c>
       <c r="G13">
-        <v>0.002451987997890592</v>
+        <v>0.0007963133365125019</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6757627190302955</v>
+        <v>0.3080914370843821</v>
       </c>
       <c r="J13">
-        <v>0.310196072087038</v>
+        <v>0.2726490112086992</v>
       </c>
       <c r="K13">
-        <v>0.4862708735067542</v>
+        <v>1.445419548366004</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3552185354838855</v>
+        <v>0.6703853522542431</v>
       </c>
       <c r="N13">
-        <v>1.664760337856888</v>
+        <v>0.6547719131207459</v>
       </c>
       <c r="O13">
-        <v>3.291743561746671</v>
+        <v>1.803123607497525</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4509067256126684</v>
+        <v>1.30075257475977</v>
       </c>
       <c r="C14">
-        <v>0.0635740755528218</v>
+        <v>0.2050495283271943</v>
       </c>
       <c r="D14">
-        <v>0.2885411174627421</v>
+        <v>0.3410376627558378</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.461335978339747</v>
+        <v>0.9121635776581059</v>
       </c>
       <c r="G14">
-        <v>0.00245237735816558</v>
+        <v>0.0007969592119331415</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6764659901833632</v>
+        <v>0.3077004098036369</v>
       </c>
       <c r="J14">
-        <v>0.3095906717873618</v>
+        <v>0.2690138028574154</v>
       </c>
       <c r="K14">
-        <v>0.4788258392320017</v>
+        <v>1.419904978994168</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3521613697638699</v>
+        <v>0.6586536786683084</v>
       </c>
       <c r="N14">
-        <v>1.667747028414336</v>
+        <v>0.6617855429212192</v>
       </c>
       <c r="O14">
-        <v>3.292971060359008</v>
+        <v>1.792451576005902</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4467247116965893</v>
+        <v>1.286435649065368</v>
       </c>
       <c r="C15">
-        <v>0.06292305256332043</v>
+        <v>0.2028085278967211</v>
       </c>
       <c r="D15">
-        <v>0.2877606757707554</v>
+        <v>0.3376629629210157</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.461100087680222</v>
+        <v>0.907250765173643</v>
       </c>
       <c r="G15">
-        <v>0.002452617271847562</v>
+        <v>0.0007973559759497323</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.676902966730335</v>
+        <v>0.3074766354465268</v>
       </c>
       <c r="J15">
-        <v>0.3092227462074248</v>
+        <v>0.2667959865370619</v>
       </c>
       <c r="K15">
-        <v>0.4742658037104945</v>
+        <v>1.404287139044413</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3502910243486212</v>
+        <v>0.651477503391618</v>
       </c>
       <c r="N15">
-        <v>1.669586915636115</v>
+        <v>0.6661065226701108</v>
       </c>
       <c r="O15">
-        <v>3.293754360633471</v>
+        <v>1.78599927591091</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4227667962003636</v>
+        <v>1.204524668381737</v>
       </c>
       <c r="C16">
-        <v>0.05919117278767771</v>
+        <v>0.1899923050652319</v>
       </c>
       <c r="D16">
-        <v>0.2833209082581618</v>
+        <v>0.3184135718038164</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.459957534812048</v>
+        <v>0.8796437843879801</v>
       </c>
       <c r="G16">
-        <v>0.002454013910607171</v>
+        <v>0.0007996475223446803</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6795021806384653</v>
+        <v>0.3064300614311932</v>
       </c>
       <c r="J16">
-        <v>0.3071587832210554</v>
+        <v>0.2542180184626233</v>
       </c>
       <c r="K16">
-        <v>0.4481385213165368</v>
+        <v>1.314939347473199</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3396075878918055</v>
+        <v>0.6104976411819507</v>
       </c>
       <c r="N16">
-        <v>1.680290760010564</v>
+        <v>0.6912442709150253</v>
       </c>
       <c r="O16">
-        <v>3.298724847933272</v>
+        <v>1.750287867496723</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4080765291227237</v>
+        <v>1.154384675002689</v>
       </c>
       <c r="C17">
-        <v>0.05690082570265531</v>
+        <v>0.1821512576237438</v>
       </c>
       <c r="D17">
-        <v>0.2806264719133083</v>
+        <v>0.3066812654823252</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.459443438148057</v>
+        <v>0.8631795440377914</v>
       </c>
       <c r="G17">
-        <v>0.002454890186986881</v>
+        <v>0.0008010695361831295</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6811815627873976</v>
+        <v>0.3059925921754214</v>
       </c>
       <c r="J17">
-        <v>0.3059323192567973</v>
+        <v>0.2466146035735619</v>
       </c>
       <c r="K17">
-        <v>0.4321146824633217</v>
+        <v>1.260251870207128</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3330848395902066</v>
+        <v>0.5854793095665514</v>
       </c>
       <c r="N17">
-        <v>1.687000143340157</v>
+        <v>0.706994421922476</v>
       </c>
       <c r="O17">
-        <v>3.302204025283771</v>
+        <v>1.729473029627798</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3996298703961543</v>
+        <v>1.125582169945545</v>
       </c>
       <c r="C18">
-        <v>0.0555831452798401</v>
+        <v>0.1776483671537079</v>
       </c>
       <c r="D18">
-        <v>0.2790874811662007</v>
+        <v>0.2999599677335851</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.459216444626676</v>
+        <v>0.8538770073026285</v>
       </c>
       <c r="G18">
-        <v>0.002455401374162481</v>
+        <v>0.0008018935175889956</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6821786840349873</v>
+        <v>0.3058138939764099</v>
       </c>
       <c r="J18">
-        <v>0.3052414946574658</v>
+        <v>0.2422810093387824</v>
       </c>
       <c r="K18">
-        <v>0.4228999876044384</v>
+        <v>1.228838625311397</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3293446620830025</v>
+        <v>0.5711313995550569</v>
       </c>
       <c r="N18">
-        <v>1.690911717493687</v>
+        <v>0.7161718575389777</v>
       </c>
       <c r="O18">
-        <v>3.30436320095788</v>
+        <v>1.717888983799668</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3967704730445405</v>
+        <v>1.115836102455575</v>
       </c>
       <c r="C19">
-        <v>0.05513694590935359</v>
+        <v>0.1761249112187073</v>
       </c>
       <c r="D19">
-        <v>0.2785682602755628</v>
+        <v>0.2976887344327963</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.45915139226129</v>
+        <v>0.8507554892580202</v>
       </c>
       <c r="G19">
-        <v>0.002455575687170872</v>
+        <v>0.000802173557791512</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6825216485507397</v>
+        <v>0.3057657051876106</v>
       </c>
       <c r="J19">
-        <v>0.3050101028399581</v>
+        <v>0.2408203833214628</v>
       </c>
       <c r="K19">
-        <v>0.419780374918048</v>
+        <v>1.218209386980249</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3280802900952722</v>
+        <v>0.5662804052122397</v>
       </c>
       <c r="N19">
-        <v>1.692245127867074</v>
+        <v>0.7192992747722657</v>
       </c>
       <c r="O19">
-        <v>3.305121409064157</v>
+        <v>1.714032225095821</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4096400477840518</v>
+        <v>1.159718284844189</v>
       </c>
       <c r="C20">
-        <v>0.05714467199703677</v>
+        <v>0.1829852019192231</v>
       </c>
       <c r="D20">
-        <v>0.2809121847169536</v>
+        <v>0.3079273849457138</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.459491055295288</v>
+        <v>0.8649147445421477</v>
       </c>
       <c r="G20">
-        <v>0.002454796163262891</v>
+        <v>0.0008009175340496348</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.680999562232639</v>
+        <v>0.3060315642978004</v>
       </c>
       <c r="J20">
-        <v>0.3060613671334522</v>
+        <v>0.2474198536450132</v>
       </c>
       <c r="K20">
-        <v>0.4338202658059913</v>
+        <v>1.266069052637533</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3337780050769794</v>
+        <v>0.5881381504801908</v>
       </c>
       <c r="N20">
-        <v>1.686280482799535</v>
+        <v>0.7053054851099527</v>
       </c>
       <c r="O20">
-        <v>3.301817304800977</v>
+        <v>1.73164833750397</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4529122417959854</v>
+        <v>1.307620427228926</v>
       </c>
       <c r="C21">
-        <v>0.06388623808652483</v>
+        <v>0.2061246377604817</v>
       </c>
       <c r="D21">
-        <v>0.2889159361910458</v>
+        <v>0.3426575580512434</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.461452794049919</v>
+        <v>0.9145292962041225</v>
       </c>
       <c r="G21">
-        <v>0.002452262698046258</v>
+        <v>0.000796769264315322</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6762581297888559</v>
+        <v>0.3078119702475099</v>
       </c>
       <c r="J21">
-        <v>0.3097678883246147</v>
+        <v>0.2700796961970866</v>
       </c>
       <c r="K21">
-        <v>0.4810125724475824</v>
+        <v>1.427396998615762</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3530588635108955</v>
+        <v>0.6620974946102578</v>
       </c>
       <c r="N21">
-        <v>1.66686758654696</v>
+        <v>0.6597202597763761</v>
       </c>
       <c r="O21">
-        <v>3.292603966192331</v>
+        <v>1.795568493975281</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4812143687522621</v>
+        <v>1.404688957191155</v>
       </c>
       <c r="C22">
-        <v>0.06828886174844229</v>
+        <v>0.2213269795622352</v>
       </c>
       <c r="D22">
-        <v>0.2942419631940822</v>
+        <v>0.3656233202461863</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.463345731428959</v>
+        <v>0.9485774523549821</v>
       </c>
       <c r="G22">
-        <v>0.002450670497645357</v>
+        <v>0.0007941097653344338</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6734369552631172</v>
+        <v>0.3096739548116751</v>
       </c>
       <c r="J22">
-        <v>0.3123201238779103</v>
+        <v>0.2852807123760925</v>
       </c>
       <c r="K22">
-        <v>0.511867713824671</v>
+        <v>1.533295761193159</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3657612223804918</v>
+        <v>0.7108661386698785</v>
       </c>
       <c r="N22">
-        <v>1.654647964581859</v>
+        <v>0.631036559042796</v>
       </c>
       <c r="O22">
-        <v>3.287989000419088</v>
+        <v>1.84109475965036</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4661072230150864</v>
+        <v>1.35284051723238</v>
       </c>
       <c r="C23">
-        <v>0.06593942777712414</v>
+        <v>0.2132051091156058</v>
       </c>
       <c r="D23">
-        <v>0.2913907013195995</v>
+        <v>0.3533401272615322</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.462279590370841</v>
+        <v>0.9302502000078761</v>
       </c>
       <c r="G23">
-        <v>0.002451514484732279</v>
+        <v>0.0007955245894750799</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6749172699737187</v>
+        <v>0.3086138115558441</v>
       </c>
       <c r="J23">
-        <v>0.3109460821205943</v>
+        <v>0.2771299037984249</v>
       </c>
       <c r="K23">
-        <v>0.4953988047887208</v>
+        <v>1.476728730272242</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3589725476414714</v>
+        <v>0.6847949403531146</v>
       </c>
       <c r="N23">
-        <v>1.661126990617786</v>
+        <v>0.6462413707697334</v>
       </c>
       <c r="O23">
-        <v>3.290323444146139</v>
+        <v>1.81643850356366</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4089331841610431</v>
+        <v>1.157306887042381</v>
       </c>
       <c r="C24">
-        <v>0.05703443197752733</v>
+        <v>0.1826081602061436</v>
       </c>
       <c r="D24">
-        <v>0.2807829825615187</v>
+        <v>0.3073639406370603</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.459469313989544</v>
+        <v>0.8641297542044271</v>
       </c>
       <c r="G24">
-        <v>0.002454838648437199</v>
+        <v>0.0008009862340861108</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6810817461815866</v>
+        <v>0.3060137187501404</v>
       </c>
       <c r="J24">
-        <v>0.3060029800873849</v>
+        <v>0.2470556830410402</v>
       </c>
       <c r="K24">
-        <v>0.4330491789378357</v>
+        <v>1.26343902037388</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3334645943019865</v>
+        <v>0.586935978676344</v>
       </c>
       <c r="N24">
-        <v>1.6866056723127</v>
+        <v>0.7060686725900878</v>
       </c>
       <c r="O24">
-        <v>3.301991646000005</v>
+        <v>1.730663692040082</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3473704828043083</v>
+        <v>0.9477545424176981</v>
       </c>
       <c r="C25">
-        <v>0.04741641493393445</v>
+        <v>0.1498665764452625</v>
       </c>
       <c r="D25">
-        <v>0.2697533542298487</v>
+        <v>0.258781502521984</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.45906506174709</v>
+        <v>0.7991349237547212</v>
       </c>
       <c r="G25">
-        <v>0.002458698867501426</v>
+        <v>0.0008071111272428069</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6889234457483298</v>
+        <v>0.3059719908553156</v>
       </c>
       <c r="J25">
-        <v>0.3012295366269839</v>
+        <v>0.2161137315441408</v>
       </c>
       <c r="K25">
-        <v>0.3658655355862663</v>
+        <v>1.034913208935052</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.306391915543081</v>
+        <v>0.4829541909397363</v>
       </c>
       <c r="N25">
-        <v>1.716096257110493</v>
+        <v>0.7750995815732384</v>
       </c>
       <c r="O25">
-        <v>3.320620520761622</v>
+        <v>1.652829088424056</v>
       </c>
     </row>
   </sheetData>
